--- a/data/evaluation/evaluation_North_Summer_Plums.xlsx
+++ b/data/evaluation/evaluation_North_Summer_Plums.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1046.921957920599</v>
+        <v>1055.635020856656</v>
       </c>
       <c r="C4" t="n">
-        <v>1862103.236067266</v>
+        <v>1861655.248028458</v>
       </c>
       <c r="D4" t="n">
-        <v>1364.58903559543</v>
+        <v>1364.424878118417</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1500560781653731</v>
+        <v>0.1502605591540017</v>
       </c>
     </row>
     <row r="5">
